--- a/Departments/PHIL.xlsx
+++ b/Departments/PHIL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mitali\Current Project\Course Requisites\DEPTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mitali\Current project\CourseMaps\CourseMap_Sigma\Departments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3ABC8592-F869-4C8B-80D3-E922BD9A2536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D87A57-AAFA-483E-A3A0-11BA047D03D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{85E8A382-DF48-4FD8-A616-B7267529EBA9}"/>
+    <workbookView xWindow="1400" yWindow="1400" windowWidth="14400" windowHeight="7360" xr2:uid="{85E8A382-DF48-4FD8-A616-B7267529EBA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,12 +51,6 @@
     <t>Course_Name</t>
   </si>
   <si>
-    <t>PREREQ_COURSES</t>
-  </si>
-  <si>
-    <t>COREQ_COURSES</t>
-  </si>
-  <si>
     <t>Acad_Group</t>
   </si>
   <si>
@@ -766,6 +760,12 @@
   </si>
   <si>
     <t>REQ: MATH 152 or 155 or 158, with a minimum grade of C-. Students wishing an intuitive appreciation of a broad range of statistical strategies may wish to take STAT 100 first.   Quantitative</t>
+  </si>
+  <si>
+    <t>Prerequisites</t>
+  </si>
+  <si>
+    <t>CoRequisites</t>
   </si>
 </sst>
 </file>
@@ -1120,7 +1120,7 @@
   <dimension ref="A1:I83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1139,2253 +1139,2253 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
       <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
         <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
         <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
         <v>32</v>
       </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" t="s">
         <v>33</v>
-      </c>
-      <c r="E7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" t="s">
         <v>36</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" t="s">
         <v>39</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
         <v>42</v>
       </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" t="s">
-        <v>44</v>
-      </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" t="s">
         <v>51</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" t="s">
         <v>54</v>
       </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" t="s">
         <v>55</v>
-      </c>
-      <c r="E15" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I15" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" t="s">
         <v>58</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" t="s">
-        <v>22</v>
-      </c>
-      <c r="I16" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D23" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D24" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H25" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D26" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E27" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H27" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E28" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H28" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D29" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E29" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H29" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" t="s">
         <v>87</v>
       </c>
-      <c r="B30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="E30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" t="s">
         <v>88</v>
-      </c>
-      <c r="D30" t="s">
-        <v>89</v>
-      </c>
-      <c r="E30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H30" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" t="s">
         <v>91</v>
       </c>
-      <c r="B31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="E31" t="s">
         <v>92</v>
       </c>
-      <c r="D31" t="s">
+      <c r="F31" t="s">
         <v>93</v>
       </c>
-      <c r="E31" t="s">
+      <c r="G31" t="s">
+        <v>90</v>
+      </c>
+      <c r="H31" t="s">
         <v>94</v>
       </c>
-      <c r="F31" t="s">
+      <c r="I31" t="s">
         <v>95</v>
-      </c>
-      <c r="G31" t="s">
-        <v>92</v>
-      </c>
-      <c r="H31" t="s">
-        <v>96</v>
-      </c>
-      <c r="I31" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" t="s">
+        <v>54</v>
+      </c>
+      <c r="F32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" t="s">
         <v>98</v>
-      </c>
-      <c r="B32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" t="s">
-        <v>99</v>
-      </c>
-      <c r="E32" t="s">
-        <v>56</v>
-      </c>
-      <c r="F32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" t="s">
-        <v>15</v>
-      </c>
-      <c r="H32" t="s">
-        <v>22</v>
-      </c>
-      <c r="I32" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D33" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E33" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G33" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H33" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D34" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E34" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G34" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D35" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E35" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G35" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H35" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D36" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E36" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G36" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H36" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" t="s">
+        <v>108</v>
+      </c>
+      <c r="E37" t="s">
         <v>109</v>
       </c>
-      <c r="B37" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" t="s">
-        <v>110</v>
-      </c>
-      <c r="E37" t="s">
-        <v>111</v>
-      </c>
       <c r="F37" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G37" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H37" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
+        <v>110</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E38" t="s">
         <v>112</v>
       </c>
-      <c r="B38" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" t="s">
-        <v>19</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="F38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" t="s">
         <v>113</v>
-      </c>
-      <c r="E38" t="s">
-        <v>114</v>
-      </c>
-      <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" t="s">
-        <v>15</v>
-      </c>
-      <c r="H38" t="s">
-        <v>22</v>
-      </c>
-      <c r="I38" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" t="s">
+        <v>115</v>
+      </c>
+      <c r="E39" t="s">
         <v>116</v>
       </c>
-      <c r="B39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="F39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" t="s">
         <v>117</v>
-      </c>
-      <c r="E39" t="s">
-        <v>118</v>
-      </c>
-      <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" t="s">
-        <v>15</v>
-      </c>
-      <c r="H39" t="s">
-        <v>22</v>
-      </c>
-      <c r="I39" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
+        <v>118</v>
+      </c>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" t="s">
+        <v>119</v>
+      </c>
+      <c r="E40" t="s">
+        <v>116</v>
+      </c>
+      <c r="F40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" t="s">
+        <v>20</v>
+      </c>
+      <c r="I40" t="s">
         <v>120</v>
-      </c>
-      <c r="B40" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" t="s">
-        <v>121</v>
-      </c>
-      <c r="E40" t="s">
-        <v>118</v>
-      </c>
-      <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s">
-        <v>15</v>
-      </c>
-      <c r="H40" t="s">
-        <v>22</v>
-      </c>
-      <c r="I40" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
+        <v>121</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" t="s">
+        <v>122</v>
+      </c>
+      <c r="D41" t="s">
         <v>123</v>
       </c>
-      <c r="B41" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="E41" t="s">
         <v>124</v>
       </c>
-      <c r="D41" t="s">
+      <c r="F41" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
         <v>125</v>
       </c>
-      <c r="E41" t="s">
+      <c r="H41" t="s">
         <v>126</v>
       </c>
-      <c r="F41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" t="s">
+      <c r="I41" t="s">
         <v>127</v>
-      </c>
-      <c r="H41" t="s">
-        <v>128</v>
-      </c>
-      <c r="I41" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E42" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" t="s">
         <v>14</v>
-      </c>
-      <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s">
-        <v>15</v>
-      </c>
-      <c r="H42" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B43" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
+        <v>129</v>
+      </c>
+      <c r="D43" t="s">
+        <v>130</v>
+      </c>
+      <c r="E43" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
         <v>131</v>
       </c>
-      <c r="D43" t="s">
+      <c r="H43" t="s">
         <v>132</v>
-      </c>
-      <c r="E43" t="s">
-        <v>14</v>
-      </c>
-      <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s">
-        <v>133</v>
-      </c>
-      <c r="H43" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B44" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
+        <v>129</v>
+      </c>
+      <c r="D44" t="s">
+        <v>130</v>
+      </c>
+      <c r="E44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" t="s">
         <v>131</v>
       </c>
-      <c r="D44" t="s">
+      <c r="H44" t="s">
         <v>132</v>
       </c>
-      <c r="E44" t="s">
-        <v>14</v>
-      </c>
-      <c r="F44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" t="s">
+      <c r="I44" t="s">
         <v>133</v>
-      </c>
-      <c r="H44" t="s">
-        <v>134</v>
-      </c>
-      <c r="I44" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B45" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D45" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E45" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G45" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H45" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
+        <v>136</v>
+      </c>
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" t="s">
+        <v>137</v>
+      </c>
+      <c r="E46" t="s">
+        <v>92</v>
+      </c>
+      <c r="F46" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>13</v>
+      </c>
+      <c r="H46" t="s">
+        <v>20</v>
+      </c>
+      <c r="I46" t="s">
         <v>138</v>
-      </c>
-      <c r="B46" t="s">
-        <v>10</v>
-      </c>
-      <c r="C46" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" t="s">
-        <v>139</v>
-      </c>
-      <c r="E46" t="s">
-        <v>94</v>
-      </c>
-      <c r="F46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" t="s">
-        <v>15</v>
-      </c>
-      <c r="H46" t="s">
-        <v>22</v>
-      </c>
-      <c r="I46" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
+        <v>139</v>
+      </c>
+      <c r="B47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" t="s">
+        <v>140</v>
+      </c>
+      <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>13</v>
+      </c>
+      <c r="H47" t="s">
+        <v>20</v>
+      </c>
+      <c r="I47" t="s">
         <v>141</v>
-      </c>
-      <c r="B47" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47" t="s">
-        <v>19</v>
-      </c>
-      <c r="D47" t="s">
-        <v>142</v>
-      </c>
-      <c r="E47" t="s">
-        <v>94</v>
-      </c>
-      <c r="F47" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" t="s">
-        <v>15</v>
-      </c>
-      <c r="H47" t="s">
-        <v>22</v>
-      </c>
-      <c r="I47" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
+        <v>142</v>
+      </c>
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" t="s">
+        <v>143</v>
+      </c>
+      <c r="E48" t="s">
+        <v>54</v>
+      </c>
+      <c r="F48" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
+        <v>13</v>
+      </c>
+      <c r="H48" t="s">
+        <v>20</v>
+      </c>
+      <c r="I48" t="s">
         <v>144</v>
-      </c>
-      <c r="B48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C48" t="s">
-        <v>19</v>
-      </c>
-      <c r="D48" t="s">
-        <v>145</v>
-      </c>
-      <c r="E48" t="s">
-        <v>56</v>
-      </c>
-      <c r="F48" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" t="s">
-        <v>15</v>
-      </c>
-      <c r="H48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I48" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
+        <v>145</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" t="s">
+        <v>146</v>
+      </c>
+      <c r="E49" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>13</v>
+      </c>
+      <c r="H49" t="s">
+        <v>20</v>
+      </c>
+      <c r="I49" t="s">
         <v>147</v>
-      </c>
-      <c r="B49" t="s">
-        <v>10</v>
-      </c>
-      <c r="C49" t="s">
-        <v>19</v>
-      </c>
-      <c r="D49" t="s">
-        <v>148</v>
-      </c>
-      <c r="E49" t="s">
-        <v>14</v>
-      </c>
-      <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" t="s">
-        <v>15</v>
-      </c>
-      <c r="H49" t="s">
-        <v>22</v>
-      </c>
-      <c r="I49" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B50" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D50" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E50" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G50" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H50" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
+        <v>150</v>
+      </c>
+      <c r="B51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" t="s">
+        <v>151</v>
+      </c>
+      <c r="E51" t="s">
         <v>152</v>
       </c>
-      <c r="B51" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51" t="s">
-        <v>19</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="F51" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" t="s">
+        <v>13</v>
+      </c>
+      <c r="H51" t="s">
+        <v>20</v>
+      </c>
+      <c r="I51" t="s">
         <v>153</v>
-      </c>
-      <c r="E51" t="s">
-        <v>154</v>
-      </c>
-      <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s">
-        <v>15</v>
-      </c>
-      <c r="H51" t="s">
-        <v>22</v>
-      </c>
-      <c r="I51" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D52" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E52" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G52" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H52" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
+        <v>156</v>
+      </c>
+      <c r="B53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" t="s">
+        <v>157</v>
+      </c>
+      <c r="E53" t="s">
         <v>158</v>
       </c>
-      <c r="B53" t="s">
-        <v>10</v>
-      </c>
-      <c r="C53" t="s">
-        <v>19</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="F53" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" t="s">
+        <v>13</v>
+      </c>
+      <c r="H53" t="s">
+        <v>20</v>
+      </c>
+      <c r="I53" t="s">
         <v>159</v>
-      </c>
-      <c r="E53" t="s">
-        <v>160</v>
-      </c>
-      <c r="F53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" t="s">
-        <v>15</v>
-      </c>
-      <c r="H53" t="s">
-        <v>22</v>
-      </c>
-      <c r="I53" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B54" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D54" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E54" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G54" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H54" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
+        <v>162</v>
+      </c>
+      <c r="B55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" t="s">
+        <v>163</v>
+      </c>
+      <c r="E55" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" t="s">
+        <v>13</v>
+      </c>
+      <c r="H55" t="s">
+        <v>20</v>
+      </c>
+      <c r="I55" t="s">
         <v>164</v>
-      </c>
-      <c r="B55" t="s">
-        <v>10</v>
-      </c>
-      <c r="C55" t="s">
-        <v>19</v>
-      </c>
-      <c r="D55" t="s">
-        <v>165</v>
-      </c>
-      <c r="E55" t="s">
-        <v>14</v>
-      </c>
-      <c r="F55" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" t="s">
-        <v>15</v>
-      </c>
-      <c r="H55" t="s">
-        <v>22</v>
-      </c>
-      <c r="I55" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
+        <v>165</v>
+      </c>
+      <c r="B56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" t="s">
+        <v>166</v>
+      </c>
+      <c r="E56" t="s">
+        <v>42</v>
+      </c>
+      <c r="F56" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" t="s">
+        <v>13</v>
+      </c>
+      <c r="H56" t="s">
+        <v>20</v>
+      </c>
+      <c r="I56" t="s">
         <v>167</v>
-      </c>
-      <c r="B56" t="s">
-        <v>10</v>
-      </c>
-      <c r="C56" t="s">
-        <v>19</v>
-      </c>
-      <c r="D56" t="s">
-        <v>168</v>
-      </c>
-      <c r="E56" t="s">
-        <v>44</v>
-      </c>
-      <c r="F56" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" t="s">
-        <v>15</v>
-      </c>
-      <c r="H56" t="s">
-        <v>22</v>
-      </c>
-      <c r="I56" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
+        <v>168</v>
+      </c>
+      <c r="B57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" t="s">
+        <v>169</v>
+      </c>
+      <c r="E57" t="s">
         <v>170</v>
       </c>
-      <c r="B57" t="s">
-        <v>10</v>
-      </c>
-      <c r="C57" t="s">
-        <v>19</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="F57" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
+        <v>13</v>
+      </c>
+      <c r="H57" t="s">
+        <v>20</v>
+      </c>
+      <c r="I57" t="s">
         <v>171</v>
-      </c>
-      <c r="E57" t="s">
-        <v>172</v>
-      </c>
-      <c r="F57" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" t="s">
-        <v>15</v>
-      </c>
-      <c r="H57" t="s">
-        <v>22</v>
-      </c>
-      <c r="I57" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B58" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D58" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E58" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G58" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H58" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
+        <v>174</v>
+      </c>
+      <c r="B59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" t="s">
+        <v>175</v>
+      </c>
+      <c r="E59" t="s">
         <v>176</v>
       </c>
-      <c r="B59" t="s">
-        <v>10</v>
-      </c>
-      <c r="C59" t="s">
-        <v>19</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="F59" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H59" t="s">
+        <v>20</v>
+      </c>
+      <c r="I59" t="s">
         <v>177</v>
-      </c>
-      <c r="E59" t="s">
-        <v>178</v>
-      </c>
-      <c r="F59" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" t="s">
-        <v>15</v>
-      </c>
-      <c r="H59" t="s">
-        <v>22</v>
-      </c>
-      <c r="I59" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
+        <v>178</v>
+      </c>
+      <c r="B60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" t="s">
+        <v>179</v>
+      </c>
+      <c r="E60" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" t="s">
+        <v>13</v>
+      </c>
+      <c r="H60" t="s">
+        <v>20</v>
+      </c>
+      <c r="I60" t="s">
         <v>180</v>
-      </c>
-      <c r="B60" t="s">
-        <v>10</v>
-      </c>
-      <c r="C60" t="s">
-        <v>19</v>
-      </c>
-      <c r="D60" t="s">
-        <v>181</v>
-      </c>
-      <c r="E60" t="s">
-        <v>118</v>
-      </c>
-      <c r="F60" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" t="s">
-        <v>15</v>
-      </c>
-      <c r="H60" t="s">
-        <v>22</v>
-      </c>
-      <c r="I60" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B61" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D61" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E61" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G61" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H61" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I61" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
+        <v>183</v>
+      </c>
+      <c r="B62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" t="s">
+        <v>184</v>
+      </c>
+      <c r="E62" t="s">
+        <v>54</v>
+      </c>
+      <c r="F62" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" t="s">
+        <v>13</v>
+      </c>
+      <c r="H62" t="s">
+        <v>20</v>
+      </c>
+      <c r="I62" t="s">
         <v>185</v>
-      </c>
-      <c r="B62" t="s">
-        <v>10</v>
-      </c>
-      <c r="C62" t="s">
-        <v>19</v>
-      </c>
-      <c r="D62" t="s">
-        <v>186</v>
-      </c>
-      <c r="E62" t="s">
-        <v>56</v>
-      </c>
-      <c r="F62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" t="s">
-        <v>15</v>
-      </c>
-      <c r="H62" t="s">
-        <v>22</v>
-      </c>
-      <c r="I62" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
+        <v>186</v>
+      </c>
+      <c r="B63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" t="s">
+        <v>187</v>
+      </c>
+      <c r="E63" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" t="s">
+        <v>13</v>
+      </c>
+      <c r="H63" t="s">
+        <v>20</v>
+      </c>
+      <c r="I63" t="s">
         <v>188</v>
-      </c>
-      <c r="B63" t="s">
-        <v>10</v>
-      </c>
-      <c r="C63" t="s">
-        <v>19</v>
-      </c>
-      <c r="D63" t="s">
-        <v>189</v>
-      </c>
-      <c r="E63" t="s">
-        <v>14</v>
-      </c>
-      <c r="F63" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" t="s">
-        <v>15</v>
-      </c>
-      <c r="H63" t="s">
-        <v>22</v>
-      </c>
-      <c r="I63" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
+        <v>189</v>
+      </c>
+      <c r="B64" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" t="s">
+        <v>190</v>
+      </c>
+      <c r="E64" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" t="s">
+        <v>13</v>
+      </c>
+      <c r="H64" t="s">
+        <v>20</v>
+      </c>
+      <c r="I64" t="s">
         <v>191</v>
-      </c>
-      <c r="B64" t="s">
-        <v>10</v>
-      </c>
-      <c r="C64" t="s">
-        <v>19</v>
-      </c>
-      <c r="D64" t="s">
-        <v>192</v>
-      </c>
-      <c r="E64" t="s">
-        <v>14</v>
-      </c>
-      <c r="F64" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64" t="s">
-        <v>15</v>
-      </c>
-      <c r="H64" t="s">
-        <v>22</v>
-      </c>
-      <c r="I64" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
+        <v>192</v>
+      </c>
+      <c r="B65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" t="s">
+        <v>193</v>
+      </c>
+      <c r="E65" t="s">
+        <v>54</v>
+      </c>
+      <c r="F65" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>13</v>
+      </c>
+      <c r="H65" t="s">
+        <v>20</v>
+      </c>
+      <c r="I65" t="s">
         <v>194</v>
-      </c>
-      <c r="B65" t="s">
-        <v>10</v>
-      </c>
-      <c r="C65" t="s">
-        <v>19</v>
-      </c>
-      <c r="D65" t="s">
-        <v>195</v>
-      </c>
-      <c r="E65" t="s">
-        <v>56</v>
-      </c>
-      <c r="F65" t="s">
-        <v>14</v>
-      </c>
-      <c r="G65" t="s">
-        <v>15</v>
-      </c>
-      <c r="H65" t="s">
-        <v>22</v>
-      </c>
-      <c r="I65" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
+        <v>195</v>
+      </c>
+      <c r="B66" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" t="s">
+        <v>196</v>
+      </c>
+      <c r="E66" t="s">
+        <v>54</v>
+      </c>
+      <c r="F66" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" t="s">
+        <v>13</v>
+      </c>
+      <c r="H66" t="s">
+        <v>20</v>
+      </c>
+      <c r="I66" t="s">
         <v>197</v>
-      </c>
-      <c r="B66" t="s">
-        <v>10</v>
-      </c>
-      <c r="C66" t="s">
-        <v>19</v>
-      </c>
-      <c r="D66" t="s">
-        <v>198</v>
-      </c>
-      <c r="E66" t="s">
-        <v>56</v>
-      </c>
-      <c r="F66" t="s">
-        <v>14</v>
-      </c>
-      <c r="G66" t="s">
-        <v>15</v>
-      </c>
-      <c r="H66" t="s">
-        <v>22</v>
-      </c>
-      <c r="I66" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B67" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D67" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E67" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G67" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H67" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B68" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D68" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E68" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G68" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H68" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B69" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D69" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E69" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G69" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H69" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B70" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D70" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E70" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G70" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H70" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B71" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D71" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E71" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G71" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H71" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B72" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D72" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E72" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G72" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H72" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B73" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D73" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E73" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G73" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H73" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B74" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D74" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E74" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G74" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H74" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B75" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D75" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E75" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G75" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H75" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B76" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D76" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E76" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G76" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H76" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B77" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D77" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E77" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G77" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H77" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B78" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D78" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E78" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G78" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H78" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B79" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D79" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E79" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G79" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H79" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B80" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D80" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E80" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G80" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H80" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B81" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
+        <v>226</v>
+      </c>
+      <c r="D81" t="s">
+        <v>227</v>
+      </c>
+      <c r="E81" t="s">
+        <v>12</v>
+      </c>
+      <c r="F81" t="s">
+        <v>12</v>
+      </c>
+      <c r="G81" t="s">
+        <v>226</v>
+      </c>
+      <c r="H81" t="s">
         <v>228</v>
-      </c>
-      <c r="D81" t="s">
-        <v>229</v>
-      </c>
-      <c r="E81" t="s">
-        <v>14</v>
-      </c>
-      <c r="F81" t="s">
-        <v>14</v>
-      </c>
-      <c r="G81" t="s">
-        <v>228</v>
-      </c>
-      <c r="H81" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
+        <v>229</v>
+      </c>
+      <c r="B82" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" t="s">
+        <v>230</v>
+      </c>
+      <c r="D82" t="s">
         <v>231</v>
       </c>
-      <c r="B82" t="s">
-        <v>10</v>
-      </c>
-      <c r="C82" t="s">
+      <c r="E82" t="s">
+        <v>54</v>
+      </c>
+      <c r="F82" t="s">
+        <v>12</v>
+      </c>
+      <c r="G82" t="s">
         <v>232</v>
       </c>
-      <c r="D82" t="s">
+      <c r="H82" t="s">
         <v>233</v>
-      </c>
-      <c r="E82" t="s">
-        <v>56</v>
-      </c>
-      <c r="F82" t="s">
-        <v>14</v>
-      </c>
-      <c r="G82" t="s">
-        <v>234</v>
-      </c>
-      <c r="H82" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
+        <v>234</v>
+      </c>
+      <c r="B83" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" t="s">
+        <v>235</v>
+      </c>
+      <c r="D83" t="s">
         <v>236</v>
       </c>
-      <c r="B83" t="s">
-        <v>10</v>
-      </c>
-      <c r="C83" t="s">
+      <c r="E83" t="s">
         <v>237</v>
       </c>
-      <c r="D83" t="s">
+      <c r="F83" t="s">
         <v>238</v>
       </c>
-      <c r="E83" t="s">
+      <c r="G83" t="s">
+        <v>131</v>
+      </c>
+      <c r="H83" t="s">
         <v>239</v>
       </c>
-      <c r="F83" t="s">
+      <c r="I83" t="s">
         <v>240</v>
-      </c>
-      <c r="G83" t="s">
-        <v>133</v>
-      </c>
-      <c r="H83" t="s">
-        <v>241</v>
-      </c>
-      <c r="I83" t="s">
-        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/Departments/PHIL.xlsx
+++ b/Departments/PHIL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mitali\Current project\CourseMaps\CourseMap_Sigma\Departments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpattani\Documents\Course_Requisites\Departments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D87A57-AAFA-483E-A3A0-11BA047D03D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{730FE637-ED86-4F54-9BB3-AE351E576246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="1400" windowWidth="14400" windowHeight="7360" xr2:uid="{85E8A382-DF48-4FD8-A616-B7267529EBA9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{85E8A382-DF48-4FD8-A616-B7267529EBA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="241">
   <si>
     <t>Course_Code</t>
   </si>
@@ -195,18 +195,9 @@
     <t>REQ-Two 300-level Philosophy courses.</t>
   </si>
   <si>
-    <t>PHIL451W</t>
-  </si>
-  <si>
-    <t>PHIL 451W - Advanced Topics in the History of Philosophy</t>
-  </si>
-  <si>
     <t>FALX99</t>
   </si>
   <si>
-    <t>REQ-two 300 level PHIL courses.</t>
-  </si>
-  <si>
     <t>PHIL467W</t>
   </si>
   <si>
@@ -390,9 +381,6 @@
     <t>PHIL120W,PHIL121,PHIL221,PHIL270,REM320W,SDA270</t>
   </si>
   <si>
-    <t>Prerequisite: One of PHIL 120, 120W, 121, 220, 221, 270, SDA 270, ENV 320W, or REM 320W.</t>
-  </si>
-  <si>
     <t>PHIL321</t>
   </si>
   <si>
@@ -420,9 +408,6 @@
     <t>COMP SCI</t>
   </si>
   <si>
-    <t>REQ-BC Math 12 (or equivalent), or any of MATH 100, 150, 151, 154, 157.</t>
-  </si>
-  <si>
     <t>COGS 100 - Exploring the Mind</t>
   </si>
   <si>
@@ -615,24 +600,6 @@
     <t>REQ-One prior philosophy course (not including PHIL 105, PHIL 110, PHIL 310, PHIL 314, or PHIL 315).  Students with credit for PHIL 355 prior to Fall 2006 may not take this course for further credit.</t>
   </si>
   <si>
-    <t>PHIL421W</t>
-  </si>
-  <si>
-    <t>PHIL 421W - Advanced Topics in Ethical Theory</t>
-  </si>
-  <si>
-    <t>REQ-15 upper division PHIL units. It is strongly recommended that students in PHIL 421W have taken prior courses in moral theory.   Writing.  (didn't create proper Enrollment Req as course is now inactive)</t>
-  </si>
-  <si>
-    <t>PHIL455W</t>
-  </si>
-  <si>
-    <t>PHIL 455W - Advanced Topics in Epistemology and Metaphysics</t>
-  </si>
-  <si>
-    <t>REQ- 15 upper division PHIL units. It is strongly recommended that students in PHIL 455W have taken prior courses in metaphysics and epistemology. Writing.</t>
-  </si>
-  <si>
     <t>PHIL802</t>
   </si>
   <si>
@@ -753,19 +720,46 @@
     <t>FANX99,MATH152,MATH155,MATH158</t>
   </si>
   <si>
-    <t>MATH152,MATH155,MATH158</t>
-  </si>
-  <si>
     <t>STAT ACSC</t>
   </si>
   <si>
-    <t>REQ: MATH 152 or 155 or 158, with a minimum grade of C-. Students wishing an intuitive appreciation of a broad range of statistical strategies may wish to take STAT 100 first.   Quantitative</t>
-  </si>
-  <si>
     <t>Prerequisites</t>
   </si>
   <si>
     <t>CoRequisites</t>
+  </si>
+  <si>
+    <t>REQ-BC Pre-Calculus 12 or BC Calculus 12 (or equivalent), or any of MATH 100, 150, 151, 154, 157. Quantitative</t>
+  </si>
+  <si>
+    <t>REQ-One of PHIL 120, 120W, 121, 220, 221, 270, SDA 270, ENV 320W, or REM 320W.</t>
+  </si>
+  <si>
+    <t>PHIL421</t>
+  </si>
+  <si>
+    <t>PHIL 421 - Advanced Topics in Ethical Theory</t>
+  </si>
+  <si>
+    <t>PHIL451</t>
+  </si>
+  <si>
+    <t>PHIL 451 - Advanced Topics in the History of Philosophy</t>
+  </si>
+  <si>
+    <t>REQ-9 upper-division PHIL units. Strongly recommended that students in PHIL 451 have prior history-of-philosophy courses (e.g., PHIL 150, 322, 342, 350, 352, 356, 357, 358).. Students with PHIL 451W may not take this course for further credit.</t>
+  </si>
+  <si>
+    <t>PHIL455</t>
+  </si>
+  <si>
+    <t>PHIL 455 - Advanced Topics in Epistemology and Metaphysics</t>
+  </si>
+  <si>
+    <t>REQ-9 upper div PHIL units. It is strongly recommended that students in PHIL 455 have taken prior courses in metaphysics and epistemology (e.g., PHIL 100W, 201, 203, or 302). Students with PHIL 455W may not take this course for further credit.</t>
+  </si>
+  <si>
+    <t>REQ-MATH 152 or 155 or 158, with a minimum grade of C-. Students wishing an intuitive appreciation of a broad range of statistical strategies may wish to take STAT 100 first.   Quantitative</t>
   </si>
 </sst>
 </file>
@@ -1120,7 +1114,7 @@
   <dimension ref="A1:I83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="A2" sqref="A2:I83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1139,10 +1133,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="F1" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1156,77 +1150,77 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -1235,27 +1229,24 @@
         <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
@@ -1264,21 +1255,24 @@
         <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>215</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>216</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
@@ -1287,53 +1281,50 @@
         <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>215</v>
       </c>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="H7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" t="s">
-        <v>33</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -1342,18 +1333,18 @@
         <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="H8" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="I8" t="s">
-        <v>36</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -1362,10 +1353,10 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
@@ -1375,14 +1366,11 @@
       </c>
       <c r="H9" t="s">
         <v>20</v>
-      </c>
-      <c r="I9" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -1391,10 +1379,10 @@
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
@@ -1404,11 +1392,14 @@
       </c>
       <c r="H10" t="s">
         <v>20</v>
+      </c>
+      <c r="I10" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -1417,10 +1408,10 @@
         <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -1430,11 +1421,14 @@
       </c>
       <c r="H11" t="s">
         <v>20</v>
+      </c>
+      <c r="I11" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>134</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -1443,10 +1437,10 @@
         <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>135</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -1456,11 +1450,14 @@
       </c>
       <c r="H12" t="s">
         <v>20</v>
+      </c>
+      <c r="I12" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -1469,7 +1466,7 @@
         <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
@@ -1486,7 +1483,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -1495,10 +1492,10 @@
         <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="F14" t="s">
         <v>12</v>
@@ -1510,12 +1507,12 @@
         <v>20</v>
       </c>
       <c r="I14" t="s">
-        <v>51</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>140</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -1524,10 +1521,10 @@
         <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>141</v>
       </c>
       <c r="E15" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
@@ -1539,12 +1536,12 @@
         <v>20</v>
       </c>
       <c r="I15" t="s">
-        <v>55</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
@@ -1553,10 +1550,10 @@
         <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
         <v>12</v>
@@ -1566,14 +1563,11 @@
       </c>
       <c r="H16" t="s">
         <v>20</v>
-      </c>
-      <c r="I16" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
@@ -1582,7 +1576,7 @@
         <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>144</v>
       </c>
       <c r="E17" t="s">
         <v>12</v>
@@ -1599,7 +1593,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
@@ -1608,7 +1602,7 @@
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="E18" t="s">
         <v>12</v>
@@ -1625,7 +1619,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>145</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
@@ -1634,10 +1628,10 @@
         <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="E19" t="s">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="F19" t="s">
         <v>12</v>
@@ -1647,11 +1641,14 @@
       </c>
       <c r="H19" t="s">
         <v>20</v>
+      </c>
+      <c r="I19" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>149</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
@@ -1660,10 +1657,10 @@
         <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>66</v>
+        <v>150</v>
       </c>
       <c r="E20" t="s">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="F20" t="s">
         <v>12</v>
@@ -1677,7 +1674,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
@@ -1686,10 +1683,10 @@
         <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>68</v>
+        <v>152</v>
       </c>
       <c r="E21" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="F21" t="s">
         <v>12</v>
@@ -1699,11 +1696,14 @@
       </c>
       <c r="H21" t="s">
         <v>20</v>
+      </c>
+      <c r="I21" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>69</v>
+        <v>155</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
@@ -1712,7 +1712,7 @@
         <v>17</v>
       </c>
       <c r="D22" t="s">
-        <v>70</v>
+        <v>156</v>
       </c>
       <c r="E22" t="s">
         <v>12</v>
@@ -1729,7 +1729,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
@@ -1738,7 +1738,7 @@
         <v>17</v>
       </c>
       <c r="D23" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="E23" t="s">
         <v>12</v>
@@ -1755,7 +1755,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
@@ -1764,7 +1764,7 @@
         <v>17</v>
       </c>
       <c r="D24" t="s">
-        <v>74</v>
+        <v>158</v>
       </c>
       <c r="E24" t="s">
         <v>12</v>
@@ -1777,11 +1777,14 @@
       </c>
       <c r="H24" t="s">
         <v>20</v>
+      </c>
+      <c r="I24" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
@@ -1790,10 +1793,10 @@
         <v>17</v>
       </c>
       <c r="D25" t="s">
-        <v>76</v>
+        <v>161</v>
       </c>
       <c r="E25" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F25" t="s">
         <v>12</v>
@@ -1803,11 +1806,14 @@
       </c>
       <c r="H25" t="s">
         <v>20</v>
+      </c>
+      <c r="I25" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="B26" t="s">
         <v>8</v>
@@ -1816,10 +1822,10 @@
         <v>17</v>
       </c>
       <c r="D26" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="E26" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="F26" t="s">
         <v>12</v>
@@ -1833,7 +1839,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
@@ -1842,10 +1848,10 @@
         <v>17</v>
       </c>
       <c r="D27" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="E27" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="F27" t="s">
         <v>12</v>
@@ -1855,11 +1861,14 @@
       </c>
       <c r="H27" t="s">
         <v>20</v>
+      </c>
+      <c r="I27" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>81</v>
+        <v>163</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
@@ -1868,10 +1877,10 @@
         <v>17</v>
       </c>
       <c r="D28" t="s">
-        <v>82</v>
+        <v>164</v>
       </c>
       <c r="E28" t="s">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="F28" t="s">
         <v>12</v>
@@ -1881,11 +1890,14 @@
       </c>
       <c r="H28" t="s">
         <v>20</v>
+      </c>
+      <c r="I28" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="B29" t="s">
         <v>8</v>
@@ -1894,10 +1906,10 @@
         <v>17</v>
       </c>
       <c r="D29" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="E29" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="F29" t="s">
         <v>12</v>
@@ -1907,23 +1919,26 @@
       </c>
       <c r="H29" t="s">
         <v>20</v>
+      </c>
+      <c r="I29" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="B30" t="s">
         <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="D30" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="E30" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="F30" t="s">
         <v>12</v>
@@ -1932,41 +1947,44 @@
         <v>13</v>
       </c>
       <c r="H30" t="s">
-        <v>88</v>
+        <v>20</v>
+      </c>
+      <c r="I30" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="B31" t="s">
         <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="D31" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="E31" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="F31" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="G31" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="H31" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="I31" t="s">
-        <v>95</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>96</v>
+        <v>167</v>
       </c>
       <c r="B32" t="s">
         <v>8</v>
@@ -1975,10 +1993,10 @@
         <v>17</v>
       </c>
       <c r="D32" t="s">
-        <v>97</v>
+        <v>168</v>
       </c>
       <c r="E32" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="F32" t="s">
         <v>12</v>
@@ -1988,14 +2006,11 @@
       </c>
       <c r="H32" t="s">
         <v>20</v>
-      </c>
-      <c r="I32" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>99</v>
+        <v>169</v>
       </c>
       <c r="B33" t="s">
         <v>8</v>
@@ -2004,10 +2019,10 @@
         <v>17</v>
       </c>
       <c r="D33" t="s">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="E33" t="s">
-        <v>12</v>
+        <v>171</v>
       </c>
       <c r="F33" t="s">
         <v>12</v>
@@ -2017,11 +2032,14 @@
       </c>
       <c r="H33" t="s">
         <v>20</v>
+      </c>
+      <c r="I33" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="B34" t="s">
         <v>8</v>
@@ -2030,10 +2048,10 @@
         <v>17</v>
       </c>
       <c r="D34" t="s">
-        <v>102</v>
+        <v>23</v>
       </c>
       <c r="E34" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F34" t="s">
         <v>12</v>
@@ -2043,11 +2061,14 @@
       </c>
       <c r="H34" t="s">
         <v>20</v>
+      </c>
+      <c r="I34" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>103</v>
+        <v>173</v>
       </c>
       <c r="B35" t="s">
         <v>8</v>
@@ -2056,10 +2077,10 @@
         <v>17</v>
       </c>
       <c r="D35" t="s">
-        <v>104</v>
+        <v>174</v>
       </c>
       <c r="E35" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="F35" t="s">
         <v>12</v>
@@ -2069,11 +2090,14 @@
       </c>
       <c r="H35" t="s">
         <v>20</v>
+      </c>
+      <c r="I35" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="B36" t="s">
         <v>8</v>
@@ -2082,7 +2106,7 @@
         <v>17</v>
       </c>
       <c r="D36" t="s">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="E36" t="s">
         <v>12</v>
@@ -2099,7 +2123,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>107</v>
+        <v>28</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
@@ -2108,10 +2132,10 @@
         <v>17</v>
       </c>
       <c r="D37" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="E37" t="s">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
         <v>12</v>
@@ -2125,7 +2149,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="B38" t="s">
         <v>8</v>
@@ -2134,10 +2158,10 @@
         <v>17</v>
       </c>
       <c r="D38" t="s">
-        <v>111</v>
+        <v>31</v>
       </c>
       <c r="E38" t="s">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="F38" t="s">
         <v>12</v>
@@ -2149,12 +2173,12 @@
         <v>20</v>
       </c>
       <c r="I38" t="s">
-        <v>113</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>114</v>
+        <v>34</v>
       </c>
       <c r="B39" t="s">
         <v>8</v>
@@ -2163,10 +2187,10 @@
         <v>17</v>
       </c>
       <c r="D39" t="s">
-        <v>115</v>
+        <v>35</v>
       </c>
       <c r="E39" t="s">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
         <v>12</v>
@@ -2178,12 +2202,12 @@
         <v>20</v>
       </c>
       <c r="I39" t="s">
-        <v>117</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>118</v>
+        <v>37</v>
       </c>
       <c r="B40" t="s">
         <v>8</v>
@@ -2192,10 +2216,10 @@
         <v>17</v>
       </c>
       <c r="D40" t="s">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="E40" t="s">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="F40" t="s">
         <v>12</v>
@@ -2207,53 +2231,53 @@
         <v>20</v>
       </c>
       <c r="I40" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>121</v>
+        <v>176</v>
       </c>
       <c r="B41" t="s">
         <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>122</v>
+        <v>17</v>
       </c>
       <c r="D41" t="s">
-        <v>123</v>
+        <v>177</v>
       </c>
       <c r="E41" t="s">
-        <v>124</v>
+        <v>32</v>
       </c>
       <c r="F41" t="s">
         <v>12</v>
       </c>
       <c r="G41" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="H41" t="s">
-        <v>126</v>
+        <v>20</v>
       </c>
       <c r="I41" t="s">
-        <v>127</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>11</v>
+        <v>178</v>
       </c>
       <c r="B42" t="s">
         <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D42" t="s">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="E42" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="F42" t="s">
         <v>12</v>
@@ -2262,47 +2286,50 @@
         <v>13</v>
       </c>
       <c r="H42" t="s">
-        <v>14</v>
+        <v>20</v>
+      </c>
+      <c r="I42" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="B43" t="s">
         <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="D43" t="s">
-        <v>130</v>
+        <v>41</v>
       </c>
       <c r="E43" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F43" t="s">
         <v>12</v>
       </c>
       <c r="G43" t="s">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="H43" t="s">
-        <v>132</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="D44" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="E44" t="s">
         <v>12</v>
@@ -2311,18 +2338,15 @@
         <v>12</v>
       </c>
       <c r="G44" t="s">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="H44" t="s">
-        <v>132</v>
-      </c>
-      <c r="I44" t="s">
-        <v>133</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>134</v>
+        <v>181</v>
       </c>
       <c r="B45" t="s">
         <v>8</v>
@@ -2331,7 +2355,7 @@
         <v>17</v>
       </c>
       <c r="D45" t="s">
-        <v>135</v>
+        <v>182</v>
       </c>
       <c r="E45" t="s">
         <v>12</v>
@@ -2344,11 +2368,14 @@
       </c>
       <c r="H45" t="s">
         <v>20</v>
+      </c>
+      <c r="I45" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>136</v>
+        <v>184</v>
       </c>
       <c r="B46" t="s">
         <v>8</v>
@@ -2357,10 +2384,10 @@
         <v>17</v>
       </c>
       <c r="D46" t="s">
-        <v>137</v>
+        <v>185</v>
       </c>
       <c r="E46" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
         <v>12</v>
@@ -2372,12 +2399,12 @@
         <v>20</v>
       </c>
       <c r="I46" t="s">
-        <v>138</v>
+        <v>186</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>139</v>
+        <v>45</v>
       </c>
       <c r="B47" t="s">
         <v>8</v>
@@ -2386,10 +2413,10 @@
         <v>17</v>
       </c>
       <c r="D47" t="s">
-        <v>140</v>
+        <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
         <v>12</v>
@@ -2399,14 +2426,11 @@
       </c>
       <c r="H47" t="s">
         <v>20</v>
-      </c>
-      <c r="I47" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>142</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>8</v>
@@ -2415,10 +2439,10 @@
         <v>17</v>
       </c>
       <c r="D48" t="s">
-        <v>143</v>
+        <v>48</v>
       </c>
       <c r="E48" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
         <v>12</v>
@@ -2428,14 +2452,11 @@
       </c>
       <c r="H48" t="s">
         <v>20</v>
-      </c>
-      <c r="I48" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>145</v>
+        <v>232</v>
       </c>
       <c r="B49" t="s">
         <v>8</v>
@@ -2444,7 +2465,7 @@
         <v>17</v>
       </c>
       <c r="D49" t="s">
-        <v>146</v>
+        <v>233</v>
       </c>
       <c r="E49" t="s">
         <v>12</v>
@@ -2457,14 +2478,11 @@
       </c>
       <c r="H49" t="s">
         <v>20</v>
-      </c>
-      <c r="I49" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>148</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>8</v>
@@ -2473,7 +2491,7 @@
         <v>17</v>
       </c>
       <c r="D50" t="s">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="E50" t="s">
         <v>12</v>
@@ -2486,11 +2504,14 @@
       </c>
       <c r="H50" t="s">
         <v>20</v>
+      </c>
+      <c r="I50" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>150</v>
+        <v>234</v>
       </c>
       <c r="B51" t="s">
         <v>8</v>
@@ -2499,10 +2520,10 @@
         <v>17</v>
       </c>
       <c r="D51" t="s">
-        <v>151</v>
+        <v>235</v>
       </c>
       <c r="E51" t="s">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
         <v>12</v>
@@ -2514,12 +2535,12 @@
         <v>20</v>
       </c>
       <c r="I51" t="s">
-        <v>153</v>
+        <v>236</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>154</v>
+        <v>237</v>
       </c>
       <c r="B52" t="s">
         <v>8</v>
@@ -2528,10 +2549,10 @@
         <v>17</v>
       </c>
       <c r="D52" t="s">
-        <v>155</v>
+        <v>238</v>
       </c>
       <c r="E52" t="s">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
         <v>12</v>
@@ -2541,11 +2562,14 @@
       </c>
       <c r="H52" t="s">
         <v>20</v>
+      </c>
+      <c r="I52" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>156</v>
+        <v>53</v>
       </c>
       <c r="B53" t="s">
         <v>8</v>
@@ -2554,10 +2578,10 @@
         <v>17</v>
       </c>
       <c r="D53" t="s">
-        <v>157</v>
+        <v>54</v>
       </c>
       <c r="E53" t="s">
-        <v>158</v>
+        <v>52</v>
       </c>
       <c r="F53" t="s">
         <v>12</v>
@@ -2569,12 +2593,12 @@
         <v>20</v>
       </c>
       <c r="I53" t="s">
-        <v>159</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>160</v>
+        <v>56</v>
       </c>
       <c r="B54" t="s">
         <v>8</v>
@@ -2583,7 +2607,7 @@
         <v>17</v>
       </c>
       <c r="D54" t="s">
-        <v>161</v>
+        <v>57</v>
       </c>
       <c r="E54" t="s">
         <v>12</v>
@@ -2600,7 +2624,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="B55" t="s">
         <v>8</v>
@@ -2609,7 +2633,7 @@
         <v>17</v>
       </c>
       <c r="D55" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="E55" t="s">
         <v>12</v>
@@ -2622,14 +2646,11 @@
       </c>
       <c r="H55" t="s">
         <v>20</v>
-      </c>
-      <c r="I55" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>165</v>
+        <v>58</v>
       </c>
       <c r="B56" t="s">
         <v>8</v>
@@ -2638,10 +2659,10 @@
         <v>17</v>
       </c>
       <c r="D56" t="s">
-        <v>166</v>
+        <v>59</v>
       </c>
       <c r="E56" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
         <v>12</v>
@@ -2651,14 +2672,11 @@
       </c>
       <c r="H56" t="s">
         <v>20</v>
-      </c>
-      <c r="I56" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="B57" t="s">
         <v>8</v>
@@ -2667,10 +2685,10 @@
         <v>17</v>
       </c>
       <c r="D57" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="E57" t="s">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
         <v>12</v>
@@ -2680,14 +2698,11 @@
       </c>
       <c r="H57" t="s">
         <v>20</v>
-      </c>
-      <c r="I57" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="B58" t="s">
         <v>8</v>
@@ -2696,10 +2711,10 @@
         <v>17</v>
       </c>
       <c r="D58" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="E58" t="s">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
         <v>12</v>
@@ -2713,7 +2728,7 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="B59" t="s">
         <v>8</v>
@@ -2722,10 +2737,10 @@
         <v>17</v>
       </c>
       <c r="D59" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="E59" t="s">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
         <v>12</v>
@@ -2735,14 +2750,11 @@
       </c>
       <c r="H59" t="s">
         <v>20</v>
-      </c>
-      <c r="I59" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="B60" t="s">
         <v>8</v>
@@ -2751,10 +2763,10 @@
         <v>17</v>
       </c>
       <c r="D60" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="E60" t="s">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
         <v>12</v>
@@ -2764,14 +2776,11 @@
       </c>
       <c r="H60" t="s">
         <v>20</v>
-      </c>
-      <c r="I60" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="B61" t="s">
         <v>8</v>
@@ -2780,10 +2789,10 @@
         <v>17</v>
       </c>
       <c r="D61" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="E61" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
         <v>12</v>
@@ -2793,14 +2802,11 @@
       </c>
       <c r="H61" t="s">
         <v>20</v>
-      </c>
-      <c r="I61" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>183</v>
+        <v>60</v>
       </c>
       <c r="B62" t="s">
         <v>8</v>
@@ -2809,10 +2815,10 @@
         <v>17</v>
       </c>
       <c r="D62" t="s">
-        <v>184</v>
+        <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
         <v>12</v>
@@ -2822,14 +2828,11 @@
       </c>
       <c r="H62" t="s">
         <v>20</v>
-      </c>
-      <c r="I62" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>186</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
         <v>8</v>
@@ -2838,7 +2841,7 @@
         <v>17</v>
       </c>
       <c r="D63" t="s">
-        <v>187</v>
+        <v>63</v>
       </c>
       <c r="E63" t="s">
         <v>12</v>
@@ -2851,14 +2854,11 @@
       </c>
       <c r="H63" t="s">
         <v>20</v>
-      </c>
-      <c r="I63" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>189</v>
+        <v>64</v>
       </c>
       <c r="B64" t="s">
         <v>8</v>
@@ -2867,7 +2867,7 @@
         <v>17</v>
       </c>
       <c r="D64" t="s">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="E64" t="s">
         <v>12</v>
@@ -2881,13 +2881,10 @@
       <c r="H64" t="s">
         <v>20</v>
       </c>
-      <c r="I64" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B65" t="s">
         <v>8</v>
@@ -2896,10 +2893,10 @@
         <v>17</v>
       </c>
       <c r="D65" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="E65" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
         <v>12</v>
@@ -2910,13 +2907,10 @@
       <c r="H65" t="s">
         <v>20</v>
       </c>
-      <c r="I65" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>195</v>
+        <v>66</v>
       </c>
       <c r="B66" t="s">
         <v>8</v>
@@ -2925,10 +2919,10 @@
         <v>17</v>
       </c>
       <c r="D66" t="s">
-        <v>196</v>
+        <v>67</v>
       </c>
       <c r="E66" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
         <v>12</v>
@@ -2939,13 +2933,10 @@
       <c r="H66" t="s">
         <v>20</v>
       </c>
-      <c r="I66" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B67" t="s">
         <v>8</v>
@@ -2954,7 +2945,7 @@
         <v>17</v>
       </c>
       <c r="D67" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E67" t="s">
         <v>12</v>
@@ -2969,9 +2960,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B68" t="s">
         <v>8</v>
@@ -2980,7 +2971,7 @@
         <v>17</v>
       </c>
       <c r="D68" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E68" t="s">
         <v>12</v>
@@ -2995,9 +2986,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>202</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>8</v>
@@ -3006,7 +2997,7 @@
         <v>17</v>
       </c>
       <c r="D69" t="s">
-        <v>203</v>
+        <v>69</v>
       </c>
       <c r="E69" t="s">
         <v>12</v>
@@ -3021,9 +3012,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B70" t="s">
         <v>8</v>
@@ -3032,7 +3023,7 @@
         <v>17</v>
       </c>
       <c r="D70" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E70" t="s">
         <v>12</v>
@@ -3047,9 +3038,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>206</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>8</v>
@@ -3058,241 +3049,241 @@
         <v>17</v>
       </c>
       <c r="D71" t="s">
+        <v>71</v>
+      </c>
+      <c r="E71" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71" t="s">
+        <v>13</v>
+      </c>
+      <c r="H71" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72" t="s">
+        <v>73</v>
+      </c>
+      <c r="E72" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72" t="s">
+        <v>13</v>
+      </c>
+      <c r="H72" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" t="s">
+        <v>17</v>
+      </c>
+      <c r="D73" t="s">
+        <v>75</v>
+      </c>
+      <c r="E73" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" t="s">
+        <v>13</v>
+      </c>
+      <c r="H73" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" t="s">
+        <v>17</v>
+      </c>
+      <c r="D74" t="s">
+        <v>77</v>
+      </c>
+      <c r="E74" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" t="s">
+        <v>12</v>
+      </c>
+      <c r="G74" t="s">
+        <v>13</v>
+      </c>
+      <c r="H74" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
         <v>207</v>
       </c>
-      <c r="E71" t="s">
-        <v>12</v>
-      </c>
-      <c r="F71" t="s">
-        <v>12</v>
-      </c>
-      <c r="G71" t="s">
-        <v>13</v>
-      </c>
-      <c r="H71" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
+      <c r="B75" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" t="s">
+        <v>17</v>
+      </c>
+      <c r="D75" t="s">
         <v>208</v>
       </c>
-      <c r="B72" t="s">
-        <v>8</v>
-      </c>
-      <c r="C72" t="s">
-        <v>17</v>
-      </c>
-      <c r="D72" t="s">
+      <c r="E75" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" t="s">
+        <v>12</v>
+      </c>
+      <c r="G75" t="s">
+        <v>13</v>
+      </c>
+      <c r="H75" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" t="s">
+        <v>17</v>
+      </c>
+      <c r="D76" t="s">
+        <v>79</v>
+      </c>
+      <c r="E76" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76" t="s">
+        <v>12</v>
+      </c>
+      <c r="G76" t="s">
+        <v>13</v>
+      </c>
+      <c r="H76" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
         <v>209</v>
       </c>
-      <c r="E72" t="s">
-        <v>12</v>
-      </c>
-      <c r="F72" t="s">
-        <v>12</v>
-      </c>
-      <c r="G72" t="s">
-        <v>13</v>
-      </c>
-      <c r="H72" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
+      <c r="B77" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" t="s">
+        <v>17</v>
+      </c>
+      <c r="D77" t="s">
         <v>210</v>
       </c>
-      <c r="B73" t="s">
-        <v>8</v>
-      </c>
-      <c r="C73" t="s">
-        <v>17</v>
-      </c>
-      <c r="D73" t="s">
+      <c r="E77" t="s">
+        <v>12</v>
+      </c>
+      <c r="F77" t="s">
+        <v>12</v>
+      </c>
+      <c r="G77" t="s">
+        <v>13</v>
+      </c>
+      <c r="H77" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>80</v>
+      </c>
+      <c r="B78" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" t="s">
+        <v>17</v>
+      </c>
+      <c r="D78" t="s">
+        <v>81</v>
+      </c>
+      <c r="E78" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78" t="s">
+        <v>12</v>
+      </c>
+      <c r="G78" t="s">
+        <v>13</v>
+      </c>
+      <c r="H78" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
         <v>211</v>
       </c>
-      <c r="E73" t="s">
-        <v>12</v>
-      </c>
-      <c r="F73" t="s">
-        <v>12</v>
-      </c>
-      <c r="G73" t="s">
-        <v>13</v>
-      </c>
-      <c r="H73" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
+      <c r="B79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" t="s">
+        <v>17</v>
+      </c>
+      <c r="D79" t="s">
         <v>212</v>
       </c>
-      <c r="B74" t="s">
-        <v>8</v>
-      </c>
-      <c r="C74" t="s">
-        <v>17</v>
-      </c>
-      <c r="D74" t="s">
+      <c r="E79" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79" t="s">
+        <v>12</v>
+      </c>
+      <c r="G79" t="s">
+        <v>13</v>
+      </c>
+      <c r="H79" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
         <v>213</v>
       </c>
-      <c r="E74" t="s">
-        <v>12</v>
-      </c>
-      <c r="F74" t="s">
-        <v>12</v>
-      </c>
-      <c r="G74" t="s">
-        <v>13</v>
-      </c>
-      <c r="H74" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
+      <c r="B80" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" t="s">
+        <v>17</v>
+      </c>
+      <c r="D80" t="s">
         <v>214</v>
-      </c>
-      <c r="B75" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" t="s">
-        <v>17</v>
-      </c>
-      <c r="D75" t="s">
-        <v>215</v>
-      </c>
-      <c r="E75" t="s">
-        <v>12</v>
-      </c>
-      <c r="F75" t="s">
-        <v>12</v>
-      </c>
-      <c r="G75" t="s">
-        <v>13</v>
-      </c>
-      <c r="H75" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>216</v>
-      </c>
-      <c r="B76" t="s">
-        <v>8</v>
-      </c>
-      <c r="C76" t="s">
-        <v>17</v>
-      </c>
-      <c r="D76" t="s">
-        <v>217</v>
-      </c>
-      <c r="E76" t="s">
-        <v>12</v>
-      </c>
-      <c r="F76" t="s">
-        <v>12</v>
-      </c>
-      <c r="G76" t="s">
-        <v>13</v>
-      </c>
-      <c r="H76" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>218</v>
-      </c>
-      <c r="B77" t="s">
-        <v>8</v>
-      </c>
-      <c r="C77" t="s">
-        <v>17</v>
-      </c>
-      <c r="D77" t="s">
-        <v>219</v>
-      </c>
-      <c r="E77" t="s">
-        <v>12</v>
-      </c>
-      <c r="F77" t="s">
-        <v>12</v>
-      </c>
-      <c r="G77" t="s">
-        <v>13</v>
-      </c>
-      <c r="H77" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>220</v>
-      </c>
-      <c r="B78" t="s">
-        <v>8</v>
-      </c>
-      <c r="C78" t="s">
-        <v>17</v>
-      </c>
-      <c r="D78" t="s">
-        <v>221</v>
-      </c>
-      <c r="E78" t="s">
-        <v>12</v>
-      </c>
-      <c r="F78" t="s">
-        <v>12</v>
-      </c>
-      <c r="G78" t="s">
-        <v>13</v>
-      </c>
-      <c r="H78" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>222</v>
-      </c>
-      <c r="B79" t="s">
-        <v>8</v>
-      </c>
-      <c r="C79" t="s">
-        <v>17</v>
-      </c>
-      <c r="D79" t="s">
-        <v>223</v>
-      </c>
-      <c r="E79" t="s">
-        <v>12</v>
-      </c>
-      <c r="F79" t="s">
-        <v>12</v>
-      </c>
-      <c r="G79" t="s">
-        <v>13</v>
-      </c>
-      <c r="H79" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>224</v>
-      </c>
-      <c r="B80" t="s">
-        <v>8</v>
-      </c>
-      <c r="C80" t="s">
-        <v>17</v>
-      </c>
-      <c r="D80" t="s">
-        <v>225</v>
       </c>
       <c r="E80" t="s">
         <v>12</v>
@@ -3309,16 +3300,16 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="B81" t="s">
         <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>226</v>
+        <v>83</v>
       </c>
       <c r="D81" t="s">
-        <v>227</v>
+        <v>84</v>
       </c>
       <c r="E81" t="s">
         <v>12</v>
@@ -3327,62 +3318,62 @@
         <v>12</v>
       </c>
       <c r="G81" t="s">
-        <v>226</v>
+        <v>13</v>
       </c>
       <c r="H81" t="s">
-        <v>228</v>
+        <v>85</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="B82" t="s">
         <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="D82" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="E82" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F82" t="s">
         <v>12</v>
       </c>
       <c r="G82" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="H82" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="B83" t="s">
         <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="D83" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="E83" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="F83" t="s">
-        <v>238</v>
+        <v>12</v>
       </c>
       <c r="G83" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="H83" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="I83" t="s">
         <v>240</v>
